--- a/wwwroot/files/productReport.xlsx
+++ b/wwwroot/files/productReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Отчет по продуктам</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Дата = </t>
   </si>
   <si>
-    <t>09.06.2022</t>
+    <t>23.06.2022</t>
   </si>
   <si>
     <t>ID продукта</t>
@@ -65,31 +65,40 @@
     <t>Intel Core i5-11400F OEM</t>
   </si>
   <si>
-    <t>11</t>
+    <t>123</t>
   </si>
   <si>
     <t>Москва, ул. Ленина, 24а</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Ritmix RKB-141</t>
   </si>
   <si>
+    <t>Возвращен</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Samsung 870 EVO</t>
+  </si>
+  <si>
     <t>Продан</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Samsung 870 EVO</t>
-  </si>
-  <si>
     <t>25.03.2022</t>
   </si>
   <si>
     <t>Стеллаж 2, полка 123</t>
+  </si>
+  <si>
+    <t>21.06.2022</t>
   </si>
   <si>
     <t>Итого:</t>
@@ -233,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="B2:K11"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -241,7 +250,7 @@
   <cols>
     <col min="2" max="2" width="19.53202247619629" customWidth="1"/>
     <col min="3" max="3" width="23.284624099731445" customWidth="1"/>
-    <col min="4" max="4" width="10.4768705368042" customWidth="1"/>
+    <col min="4" max="4" width="10.9669189453125" customWidth="1"/>
     <col min="5" max="5" width="20.25328254699707" customWidth="1"/>
     <col min="6" max="6" width="16.151813507080078" customWidth="1"/>
     <col min="7" max="7" width="13.722033500671387" customWidth="1"/>
@@ -355,7 +364,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0">
         <v>1234567890</v>
@@ -376,13 +385,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0">
         <v>5910043432</v>
@@ -391,7 +400,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="10">
         <v>2400</v>
@@ -403,22 +412,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0">
         <v>2346357664</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="10">
         <v>5000</v>
@@ -430,13 +439,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="0">
         <v>5910043432</v>
@@ -453,24 +462,51 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11">
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="11">
-        <f>SUM(I5:I10)</f>
-        <v>79400</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="13">
-        <v>6</v>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0">
+        <v>5910043432</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="10">
+        <v>24000</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="11">
+        <f>SUM(I5:I11)</f>
+        <v>103400</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
